--- a/测试报告.xlsx
+++ b/测试报告.xlsx
@@ -12,18 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="28">
+  <si>
+    <t>对比旧DL数据条数与DMS数据条数是否一致</t>
+  </si>
   <si>
     <t>count(1)</t>
   </si>
   <si>
-    <t>所有日期/时间格式字段</t>
-  </si>
-  <si>
     <t>dms_uat.tg_ums_orderinfo</t>
   </si>
   <si>
-    <t>此处需手动填写最早时间-2023/01/17(截至时间)</t>
+    <t>此处需手动填写最早时间-2023/01/18(截至时间)</t>
   </si>
   <si>
     <t>TC-01</t>
@@ -56,7 +56,7 @@
     <t>通过</t>
   </si>
   <si>
-    <t>2023/01/17</t>
+    <t>2023/01/18</t>
   </si>
   <si>
     <t>肖雄升</t>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>判断旧DL表时间类型字段值不符合时间格式的记录数是否为0</t>
+  </si>
+  <si>
+    <t>所有日期/时间格式字段</t>
   </si>
   <si>
     <t>TC-03</t>
@@ -106,10 +109,10 @@
     <t>异常条数:0</t>
   </si>
   <si>
+    <t>判断旧DL表数值类型字段值为NULL的记录数是否等于0</t>
+  </si>
+  <si>
     <t>所有数值类型字段</t>
-  </si>
-  <si>
-    <t>判断旧DL表数值类型字段值为NULL的记录数是否等于0</t>
   </si>
   <si>
     <t>TC-04</t>
@@ -244,7 +247,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>248827.0</v>
@@ -256,7 +259,7 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="s">
         <v>5</v>
@@ -308,7 +311,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E4" t="n">
         <v>0.0</v>
@@ -317,16 +320,16 @@
         <v>0.0</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K4" t="s">
         <v>7</v>
@@ -349,7 +352,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
         <v>0.0</v>
@@ -358,16 +361,16 @@
         <v>0.0</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
         <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5" t="s">
         <v>7</v>
@@ -384,13 +387,13 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>7274313.0</v>
@@ -402,10 +405,10 @@
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J6" t="s">
         <v>6</v>
@@ -425,7 +428,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -448,13 +451,13 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E8" t="n">
         <v>1.0</v>
@@ -463,19 +466,19 @@
         <v>0.0</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L8" t="s">
         <v>8</v>

--- a/测试报告.xlsx
+++ b/测试报告.xlsx
@@ -12,7 +12,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="41">
+  <si>
+    <t>序号NO.1</t>
+  </si>
+  <si>
+    <t>表名</t>
+  </si>
+  <si>
+    <t>数据范围</t>
+  </si>
+  <si>
+    <t>字段</t>
+  </si>
+  <si>
+    <t>结果记录数</t>
+  </si>
+  <si>
+    <t>参考数据</t>
+  </si>
+  <si>
+    <t>分类编号</t>
+  </si>
+  <si>
+    <t>测试用例描述</t>
+  </si>
+  <si>
+    <t>测试SQL</t>
+  </si>
+  <si>
+    <t>测试结果</t>
+  </si>
+  <si>
+    <t>结论</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>执行人</t>
+  </si>
   <si>
     <t>对比旧DL数据条数与DMS数据条数是否一致</t>
   </si>
@@ -230,24 +269,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:M8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E2" t="n">
         <v>248827.0</v>
@@ -256,25 +336,25 @@
         <v>248827.0</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -282,22 +362,22 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -305,13 +385,13 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E4" t="n">
         <v>0.0</v>
@@ -320,25 +400,25 @@
         <v>0.0</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="K4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="L4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="M4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -346,13 +426,13 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E5" t="n">
         <v>0.0</v>
@@ -361,25 +441,25 @@
         <v>0.0</v>
       </c>
       <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
         <v>21</v>
       </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="s">
         <v>22</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -387,13 +467,13 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E6" t="n">
         <v>7274313.0</v>
@@ -402,25 +482,25 @@
         <v>7274313.0</v>
       </c>
       <c r="G6" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="J6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="L6" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="M6" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -428,22 +508,22 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
         <v>23</v>
       </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -451,13 +531,13 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E8" t="n">
         <v>1.0</v>
@@ -466,25 +546,25 @@
         <v>0.0</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="I8" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="K8" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="L8" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="M8" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/测试报告.xlsx
+++ b/测试报告.xlsx
@@ -62,7 +62,7 @@
     <t>dms_uat.tg_ums_orderinfo</t>
   </si>
   <si>
-    <t>此处需手动填写最早时间-2023/01/18(截至时间)</t>
+    <t>此处需手动填写最早时间-2023/01/19(截至时间)</t>
   </si>
   <si>
     <t>TC-01</t>
@@ -95,7 +95,7 @@
     <t>通过</t>
   </si>
   <si>
-    <t>2023/01/18</t>
+    <t>2023/01/19</t>
   </si>
   <si>
     <t>肖雄升</t>
